--- a/classification/droptc/sentence/drone-sbert/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/sentence/drone-sbert/unfreeze/87212562/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8853418827056885</v>
+        <v>0.9998906850814819</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9978001713752747</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9978420734405518</v>
+        <v>0.9999597072601318</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9977914094924927</v>
+        <v>0.9994839429855347</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9796196222305298</v>
+        <v>0.9999595880508423</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9977908134460449</v>
+        <v>0.9999610185623169</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9784583449363708</v>
+        <v>0.9999579191207886</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9810912609100342</v>
+        <v>0.9999605417251587</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9978612065315247</v>
+        <v>0.9999579191207886</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9978001713752747</v>
+        <v>0.9987627267837524</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9978844523429871</v>
+        <v>0.9999585151672363</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9978502988815308</v>
+        <v>0.9996834993362427</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9978784322738647</v>
+        <v>0.9999557733535767</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9978886246681213</v>
+        <v>0.9996688365936279</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9978775978088379</v>
+        <v>0.999957799911499</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9978746175765991</v>
+        <v>0.9999405145645142</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9978740215301514</v>
+        <v>0.9992550015449524</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9978658556938171</v>
+        <v>0.9999585151672363</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9978826642036438</v>
+        <v>0.9999524354934692</v>
       </c>
     </row>
     <row r="21">
@@ -1015,14 +1015,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9873151779174805</v>
+        <v>0.9999567270278931</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9978356957435608</v>
+        <v>0.9999573230743408</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9978315234184265</v>
+        <v>0.9999610185623169</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9978740215301514</v>
+        <v>0.9999606609344482</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9893335700035095</v>
+        <v>0.9994799494743347</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9672247767448425</v>
+        <v>0.9989506006240845</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9892874956130981</v>
+        <v>0.9999592304229736</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9977051615715027</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9893800616264343</v>
+        <v>0.9999574422836304</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9872016906738281</v>
+        <v>0.9999598264694214</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9872810244560242</v>
+        <v>0.9999610185623169</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9978640675544739</v>
+        <v>0.9999520778656006</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9978752136230469</v>
+        <v>0.9998108744621277</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9978947043418884</v>
+        <v>0.9996869564056396</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9978797435760498</v>
+        <v>0.9996688365936279</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9977902173995972</v>
+        <v>0.9999610185623169</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9977974891662598</v>
+        <v>0.9997022747993469</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9112034440040588</v>
+        <v>0.99996018409729</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9978653788566589</v>
+        <v>0.9996931552886963</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9978140592575073</v>
+        <v>0.9998165965080261</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9978792667388916</v>
+        <v>0.9999569654464722</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9978660941123962</v>
+        <v>0.9995830655097961</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9978508949279785</v>
+        <v>0.9998114705085754</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.997760534286499</v>
+        <v>0.9996886253356934</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9978487491607666</v>
+        <v>0.9998154044151306</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9978601336479187</v>
+        <v>0.9997989535331726</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9978735446929932</v>
+        <v>0.9993054866790771</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9892162084579468</v>
+        <v>0.999803364276886</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.98678058385849</v>
+        <v>0.9999608993530273</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9978013634681702</v>
+        <v>0.999808132648468</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9978786706924438</v>
+        <v>0.9975866079330444</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9978796243667603</v>
+        <v>0.9999591112136841</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9978039860725403</v>
+        <v>0.999808132648468</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9978703260421753</v>
+        <v>0.9998102784156799</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9893335700035095</v>
+        <v>0.9999603033065796</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9978564381599426</v>
+        <v>0.9999599456787109</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9978224039077759</v>
+        <v>0.9999600648880005</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9893800616264343</v>
+        <v>0.9996370077133179</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9813008308410645</v>
+        <v>0.9999570846557617</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9873340129852295</v>
+        <v>0.999950647354126</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9978267550468445</v>
+        <v>0.9999549388885498</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.997846245765686</v>
+        <v>0.9999606609344482</v>
       </c>
     </row>
     <row r="63">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9874287247657776</v>
+        <v>0.9996362924575806</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9792329668998718</v>
+        <v>0.9890266060829163</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9722775220870972</v>
+        <v>0.9996360540390015</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9978716373443604</v>
+        <v>0.9996360540390015</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9978477954864502</v>
+        <v>0.999702513217926</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9892170429229736</v>
+        <v>0.9996360540390015</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.905250608921051</v>
+        <v>0.999879002571106</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9892421364784241</v>
+        <v>0.9999616146087646</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9890342950820923</v>
+        <v>0.8484395146369934</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9977909326553345</v>
+        <v>0.9999562501907349</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9872995018959045</v>
+        <v>0.9996908903121948</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9978526830673218</v>
+        <v>0.9999608993530273</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9796481728553772</v>
+        <v>0.9999561309814453</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9768319725990295</v>
+        <v>0.9996908903121948</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9978823065757751</v>
+        <v>0.9999597072601318</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9978207349777222</v>
+        <v>0.9996908903121948</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.997829258441925</v>
+        <v>0.9999607801437378</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.997860848903656</v>
+        <v>0.9996974468231201</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9978318810462952</v>
+        <v>0.9999567270278931</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9891941547393799</v>
+        <v>0.9996974468231201</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9978522062301636</v>
+        <v>0.9999486207962036</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9977425336837769</v>
+        <v>0.9999486207962036</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.99781334400177</v>
+        <v>0.9999561309814453</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9978534579277039</v>
+        <v>0.9996795654296875</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9814721345901489</v>
+        <v>0.9999529123306274</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.977959156036377</v>
+        <v>0.9996957778930664</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.997853696346283</v>
+        <v>0.9999579191207886</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9978299736976624</v>
+        <v>0.9999606609344482</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9868925213813782</v>
+        <v>0.9999606609344482</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9978299736976624</v>
+        <v>0.9999606609344482</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9869715571403503</v>
+        <v>0.9999598264694214</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9977731108665466</v>
+        <v>0.99996018409729</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9977834820747375</v>
+        <v>0.9999606609344482</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9827598333358765</v>
+        <v>0.9999604225158691</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9805450439453125</v>
+        <v>0.9994860887527466</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9867171049118042</v>
+        <v>0.9999606609344482</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9977722764015198</v>
+        <v>0.999916672706604</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9947698712348938</v>
+        <v>0.9999617338180542</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9892749190330505</v>
+        <v>0.9999580383300781</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9562901854515076</v>
+        <v>0.9994285702705383</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9974465370178223</v>
+        <v>0.9998069405555725</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9489197134971619</v>
+        <v>0.9999613761901855</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9698787927627563</v>
+        <v>0.9998811483383179</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9978318810462952</v>
+        <v>0.9999608993530273</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9978693723678589</v>
+        <v>0.9998077750205994</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9890885949134827</v>
+        <v>0.9995469450950623</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9686205983161926</v>
+        <v>0.9999110698699951</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9872926473617554</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9978930354118347</v>
+        <v>0.9998130202293396</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9978287816047668</v>
+        <v>0.9998127818107605</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9979020357131958</v>
+        <v>0.9996991157531738</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9977774024009705</v>
+        <v>0.99996018409729</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.971290111541748</v>
+        <v>0.9996774196624756</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9978431463241577</v>
+        <v>0.9999333620071411</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9892874956130981</v>
+        <v>0.9999597072601318</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9977834820747375</v>
+        <v>0.9994468092918396</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9977666139602661</v>
+        <v>0.999438464641571</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.997861921787262</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9893335700035095</v>
+        <v>0.9998800754547119</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9868729114532471</v>
+        <v>0.9999613761901855</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9978408813476562</v>
+        <v>0.9998800754547119</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9978001713752747</v>
+        <v>0.9999613761901855</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9869717955589294</v>
+        <v>0.9998800754547119</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9978370070457458</v>
+        <v>0.9999606609344482</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9977805018424988</v>
+        <v>0.9989321827888489</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9978483915328979</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9892900586128235</v>
+        <v>0.9989081621170044</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9863992929458618</v>
+        <v>0.9994831085205078</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9978001713752747</v>
+        <v>0.9999594688415527</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9978647828102112</v>
+        <v>0.4702222943305969</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9978336691856384</v>
+        <v>0.9999595880508423</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9978645443916321</v>
+        <v>0.9999604225158691</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8914495706558228</v>
+        <v>0.9999591112136841</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9978705644607544</v>
+        <v>0.9999432563781738</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9869715571403503</v>
+        <v>0.9999600648880005</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9978432655334473</v>
+        <v>0.9999579191207886</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9894052147865295</v>
+        <v>0.9999580383300781</v>
       </c>
     </row>
     <row r="140">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8323505520820618</v>
+        <v>0.9999582767486572</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9879319071769714</v>
+        <v>0.9894189834594727</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9976407289505005</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9977715611457825</v>
+        <v>0.9997019171714783</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9977993369102478</v>
+        <v>0.9999610185623169</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9978952407836914</v>
+        <v>0.9997019171714783</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9891287684440613</v>
+        <v>0.9999592304229736</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9978557229042053</v>
+        <v>0.999879002571106</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9978779554367065</v>
+        <v>0.9999618530273438</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9893681406974792</v>
+        <v>0.999671459197998</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9892749190330505</v>
+        <v>0.9899847507476807</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9978366494178772</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9848314523696899</v>
+        <v>0.9917709827423096</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9978001713752747</v>
+        <v>0.9999611377716064</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9021946787834167</v>
+        <v>0.9995434880256653</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9978318810462952</v>
+        <v>0.9999599456787109</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.997808039188385</v>
+        <v>0.9995520710945129</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9978925585746765</v>
+        <v>0.9999600648880005</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.98678058385849</v>
+        <v>0.9995551705360413</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9978001713752747</v>
+        <v>0.9999607801437378</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9978717565536499</v>
+        <v>0.9981189370155334</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9977861642837524</v>
+        <v>0.9999508857727051</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6018920540809631</v>
+        <v>0.9851623177528381</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9978912472724915</v>
+        <v>0.9999552965164185</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9978558421134949</v>
+        <v>0.9996755123138428</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9978001713752747</v>
+        <v>0.9999605417251587</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9779701232910156</v>
+        <v>0.9999520778656006</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9977881908416748</v>
+        <v>0.9998044371604919</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9978001713752747</v>
+        <v>0.9996893405914307</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9978947043418884</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.997900128364563</v>
+        <v>0.9998044371604919</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9977700710296631</v>
+        <v>0.9997108578681946</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.4935403168201447</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="173">
@@ -5271,14 +5271,14 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6011536121368408</v>
+        <v>0.9999587535858154</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E174" t="b">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8070226907730103</v>
+        <v>0.9999589920043945</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E175" t="b">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9810912609100342</v>
+        <v>0.9999587535858154</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9591654539108276</v>
+        <v>0.9999587535858154</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9895182251930237</v>
+        <v>0.9999589920043945</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9893503785133362</v>
+        <v>0.9999579191207886</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9892874956130981</v>
+        <v>0.9999562501907349</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9978341460227966</v>
+        <v>0.9999591112136841</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.98713219165802</v>
+        <v>0.9999585151672363</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9978806972503662</v>
+        <v>0.9999589920043945</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9810912609100342</v>
+        <v>0.9998776912689209</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9861850142478943</v>
+        <v>0.9999613761901855</v>
       </c>
     </row>
     <row r="185">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E185" t="b">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9005827903747559</v>
+        <v>0.9999611377716064</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9977600574493408</v>
+        <v>0.9999611377716064</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9978975057601929</v>
+        <v>0.9999593496322632</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9978659749031067</v>
+        <v>0.9999599456787109</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.5718657374382019</v>
+        <v>0.9999589920043945</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9977843165397644</v>
+        <v>0.9999563694000244</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9782574772834778</v>
+        <v>0.9994915723800659</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.7363203763961792</v>
+        <v>0.9999604225158691</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9978692531585693</v>
+        <v>0.999958872795105</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9978260397911072</v>
+        <v>0.9998805522918701</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9978457689285278</v>
+        <v>0.9997249245643616</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9978477954864502</v>
+        <v>0.9999608993530273</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9874495267868042</v>
+        <v>0.9999607801437378</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.8846603035926819</v>
+        <v>0.9999608993530273</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9813795685768127</v>
+        <v>0.99996018409729</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9973527193069458</v>
+        <v>0.9996857643127441</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9978470802307129</v>
+        <v>0.9999600648880005</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9977961778640747</v>
+        <v>0.9999610185623169</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8682099580764771</v>
+        <v>0.9999576807022095</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9978240728378296</v>
+        <v>0.9998111128807068</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9805450439453125</v>
+        <v>0.9999583959579468</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9891457557678223</v>
+        <v>0.9999583959579468</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9978187084197998</v>
+        <v>0.9994843006134033</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9977244734764099</v>
+        <v>0.9999570846557617</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9978843331336975</v>
+        <v>0.9973306655883789</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9978000521659851</v>
+        <v>0.9999582767486572</v>
       </c>
     </row>
   </sheetData>
